--- a/data/trans_bre/MCS12_SP_R3-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.61809453215066</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.717212559864716</v>
+        <v>7.717212559864723</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1970192642152988</v>
@@ -649,7 +649,7 @@
         <v>0.2526974412285463</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2476679813888438</v>
+        <v>0.247667981388844</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7355620371434932</v>
+        <v>0.6419232799370616</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.596767825229994</v>
+        <v>8.606740745224521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.183887776097389</v>
+        <v>3.858158709545815</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.417217236004997</v>
+        <v>2.11608564478904</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0226565265645438</v>
+        <v>0.02260586788570955</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.257657247474254</v>
+        <v>0.256071559891431</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0977260168888114</v>
+        <v>0.1209007374114397</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.04238766582155535</v>
+        <v>0.06023426257872905</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.17206864316589</v>
+        <v>10.71734097057907</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.75239818753872</v>
+        <v>17.21812667963386</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.22052094170915</v>
+        <v>11.92077184597768</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.248447803975</v>
+        <v>13.73562105493405</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3888188641948009</v>
+        <v>0.4258715874439065</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5772908036335704</v>
+        <v>0.6069679500883544</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3903986907473285</v>
+        <v>0.4289045188770593</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4803313817405482</v>
+        <v>0.4969926763792767</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.441979201669301</v>
+        <v>3.384304267015458</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.642180592256776</v>
+        <v>5.427529361929103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.214704211258772</v>
+        <v>2.194396619917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.672297155547988</v>
+        <v>3.295579328453943</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1751070585413026</v>
+        <v>0.1673581920010033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2425506579711163</v>
+        <v>0.2308160870136191</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1237754284994679</v>
+        <v>0.1153977105032985</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1882344507685987</v>
+        <v>0.1694980168312291</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.46624876941262</v>
+        <v>10.71991707788612</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.21373084383147</v>
+        <v>13.45570616894333</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.66049641793434</v>
+        <v>9.505965287127742</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.21442078188913</v>
+        <v>10.17355646964277</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6421555762404689</v>
+        <v>0.6495752293964817</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6990365875876395</v>
+        <v>0.6882955934485717</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6542260149011965</v>
+        <v>0.626806264572402</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6396558878296759</v>
+        <v>0.6436626842848735</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.234428745811865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.937625025035301</v>
+        <v>8.937625025035304</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6054401319709983</v>
@@ -849,7 +849,7 @@
         <v>0.6567963752017992</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6591991468378454</v>
+        <v>0.6591991468378458</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.436986519280024</v>
+        <v>4.562028983268585</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.869528289993604</v>
+        <v>5.706894603227305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.179818275851595</v>
+        <v>4.076969819206176</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.629855548451339</v>
+        <v>6.058752763060683</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3094223731027574</v>
+        <v>0.3181982749477231</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3338168920288213</v>
+        <v>0.3135320336361813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2571957390866331</v>
+        <v>0.3232205649341905</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.367124173938379</v>
+        <v>0.3922774312480752</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.18280355629023</v>
+        <v>10.89359887537218</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.32556112868771</v>
+        <v>13.40040977084329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.38566494743288</v>
+        <v>11.02892751339981</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.93549987665789</v>
+        <v>12.196564787873</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9765360602211929</v>
+        <v>0.9351124080245321</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9536106019382993</v>
+        <v>0.9222048397232254</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.118725777966467</v>
+        <v>1.1745799686892</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.005477657222367</v>
+        <v>1.020074515129621</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>10.22531115110905</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.344394632186905</v>
+        <v>8.344394632186914</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.270112461778338</v>
@@ -949,7 +949,7 @@
         <v>0.9845426222818201</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3787778337701786</v>
+        <v>0.378777833770179</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.052205098911885</v>
+        <v>-0.4147966470062899</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9916822988513658</v>
+        <v>1.416296668946199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.27695126982307</v>
+        <v>5.450757279081901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.465603966613537</v>
+        <v>4.423223329036675</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04628503719617506</v>
+        <v>-0.02579540941525985</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04893722908390738</v>
+        <v>0.06290794721477792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4204142823435662</v>
+        <v>0.426672609231107</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1904317755838388</v>
+        <v>0.1790561767774479</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.02338467204163</v>
+        <v>11.38530214138062</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.02574415903385</v>
+        <v>12.28040820259017</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.9496196676466</v>
+        <v>15.24846411522401</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.41647845984232</v>
+        <v>12.07024370940402</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6972820015206594</v>
+        <v>0.6954294315941187</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7571939800739357</v>
+        <v>0.8005979621064536</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.792047833872759</v>
+        <v>1.839180177029583</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6344431276268733</v>
+        <v>0.5964242834072044</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.92357670404791</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.19399719539298</v>
+        <v>8.193997195392969</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4302125416533918</v>
@@ -1049,7 +1049,7 @@
         <v>0.420374652565729</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.418120340391059</v>
+        <v>0.4181203403910583</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.745921258184813</v>
+        <v>5.804637145578364</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.158927263980399</v>
+        <v>7.966701129036738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.989968901557432</v>
+        <v>5.801136538316781</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.282957805448529</v>
+        <v>6.27447898579257</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2946652387722956</v>
+        <v>0.2926583809064298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3526756616759025</v>
+        <v>0.3464033500377985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3060397554716964</v>
+        <v>0.2966976189701375</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3074446749786994</v>
+        <v>0.3024689847498419</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.815261384294297</v>
+        <v>9.826354111464461</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.43289864251437</v>
+        <v>12.23538137854205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.16844001848187</v>
+        <v>9.805748621205488</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.20776510660407</v>
+        <v>10.1241146974273</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5708255423007833</v>
+        <v>0.5578551168863223</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5890214111356408</v>
+        <v>0.573656918093909</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5590711593273706</v>
+        <v>0.5572819843698521</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5596343938742673</v>
+        <v>0.5520460509969377</v>
       </c>
     </row>
     <row r="19">
